--- a/Framework/Testdata/TestData.xlsx
+++ b/Framework/Testdata/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Usha-QA\neon-workspace\Framework\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucky\git\Framework\Framework\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7C79C3-5C54-460E-9306-86E5F862BF51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCDE58-4410-4CE6-8831-EECD4019065B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>ushafromwork@gmail.com</t>
   </si>
   <si>
-    <t>Abcd@1234</t>
+    <t>Abcd@123456</t>
   </si>
 </sst>
 </file>
